--- a/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
+++ b/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_01_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C8771-B1C8-4989-917B-C9D67F34FAD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Color Codes</t>
   </si>
@@ -120,12 +121,21 @@
   </si>
   <si>
     <t>Default Alarm Load</t>
+  </si>
+  <si>
+    <t>Pro32xD</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PFI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -264,13 +274,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -553,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,12 +595,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -590,10 +612,10 @@
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -654,10 +676,10 @@
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -672,7 +694,7 @@
       <c r="K7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -692,16 +714,16 @@
       <c r="E8" s="6">
         <v>16</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>0.30099999999999999</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>0.38700000000000001</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -715,10 +737,31 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="22" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="6" t="s">

--- a/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
+++ b/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C8771-B1C8-4989-917B-C9D67F34FAD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Color Codes</t>
   </si>
@@ -103,9 +102,6 @@
   </si>
   <si>
     <t>Gallery Type</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>PR8AS-102</t>
@@ -135,7 +131,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -278,23 +277,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,12 +597,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -612,10 +614,10 @@
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -677,10 +679,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>22</v>
@@ -692,10 +694,10 @@
         <v>23</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -715,63 +717,67 @@
         <v>16</v>
       </c>
       <c r="F8" s="17">
-        <v>0.30099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="17">
-        <v>0.38700000000000001</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="10">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.21299999999999999</v>
+        <f>F8+0.132</f>
+        <v>0.432</v>
+      </c>
+      <c r="L8" s="24">
+        <f>G8+0.21296</f>
+        <v>0.82496000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.50600000000000001</v>
+      <c r="E9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.42599999999999999</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>26</v>
+      <c r="K9" s="19">
+        <f>F9+0.132</f>
+        <v>0.40800000000000003</v>
+      </c>
+      <c r="L9" s="24">
+        <f>G9+0.21296</f>
+        <v>0.63895999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
+++ b/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
@@ -133,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -289,14 +289,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,12 +597,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -614,10 +614,10 @@
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -732,12 +732,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="10">
-        <f>F8+0.132</f>
-        <v>0.432</v>
-      </c>
-      <c r="L8" s="24">
-        <f>G8+0.21296</f>
-        <v>0.82496000000000003</v>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.21296000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -772,12 +770,10 @@
         <v>26</v>
       </c>
       <c r="K9" s="19">
-        <f>F9+0.132</f>
-        <v>0.40800000000000003</v>
-      </c>
-      <c r="L9" s="24">
-        <f>G9+0.21296</f>
-        <v>0.63895999999999997</v>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.21296000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
+++ b/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>PFI</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
@@ -578,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +608,7 @@
     <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -607,7 +619,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -622,7 +634,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -637,7 +649,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -650,7 +662,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -659,10 +671,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -699,8 +711,14 @@
       <c r="L7" s="16" t="s">
         <v>28</v>
       </c>
+      <c r="M7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -737,8 +755,14 @@
       <c r="L8" s="22">
         <v>0.21296000000000001</v>
       </c>
+      <c r="M8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>31</v>
       </c>
@@ -774,6 +798,12 @@
       </c>
       <c r="L9" s="22">
         <v>0.21296000000000001</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
+++ b/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
+    <sheet name="Test data" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>Battery Standby (A)</t>
+  </si>
+  <si>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -590,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,91 +726,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6">
-        <v>16</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0.61199999999999999</v>
+      <c r="C8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.42599999999999999</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="J8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="19">
         <v>0.13200000000000001</v>
       </c>
       <c r="L8" s="22">
         <v>0.21296000000000001</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0.21296000000000001</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -814,4 +777,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6">
+        <v>16</v>
+      </c>
+      <c r="F1" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="17">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L1" s="22">
+        <v>0.21296000000000001</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
+++ b/Test Data/TC_146_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Addition_Deletion_Of_Ethernet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C18023-B4D5-4E90-943B-502211D8DF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Color Codes</t>
   </si>
@@ -145,12 +146,21 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>NGC-488/T392 OR TC-146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -261,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,6 +320,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -596,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,16 +628,16 @@
     <col min="8" max="11" width="25.21875" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -633,10 +649,10 @@
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -660,7 +676,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -756,17 +774,59 @@
       <c r="J8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="19">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0.21296000000000001</v>
+      <c r="K8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20">
+        <v>16</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.21296000000000001</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -780,8 +840,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -833,6 +893,50 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0.21296000000000001</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
